--- a/database_data_200.xlsx
+++ b/database_data_200.xlsx
@@ -473,447 +473,447 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Evans</t>
+          <t>Weber</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Kathleen</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>612524126</v>
+        <v>837561270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jimenez</t>
+          <t>Malone</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cody</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ray</t>
+          <t>Lindsay</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flynn</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>801971894</v>
+        <v>714375088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chang</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Leah</t>
+          <t>Corey</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cameron</t>
+          <t>Olson</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>956858283</v>
+        <v>560528673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Beck</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Devin</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pierce</t>
+          <t>Mata</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tanya</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>959546372</v>
+        <v>158472928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bates</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>473275620</v>
+        <v>876651725</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Marissa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Frye</t>
+          <t>Cochran</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>931715316</v>
+        <v>98196486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Roberts</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Carter</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Sheri</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>163602559</v>
+        <v>205088207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Reid</t>
+          <t>Farley</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Breanna</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Simmons</t>
+          <t>Carpenter</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>306090471</v>
+        <v>964250633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Doyle</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sheila</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Klein</t>
+          <t>Cain</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>655299918</v>
+        <v>360742185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nunez</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Renee</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-04-24</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Curry</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>231755867</v>
+        <v>475555266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shaw</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Selena</t>
+          <t>Jared</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2021-06-19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>Woods</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tony</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>983125145</v>
+        <v>629988117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Sherri</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bradley</t>
+          <t>Alicia</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>102441562</v>
+        <v>148738032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Edward</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Darren</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-12-10</t>
+          <t>2023-03-04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Flores</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -922,1558 +922,1558 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>558729107</v>
+        <v>812352805</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sheila</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-01-08</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Bowman</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>54620416</v>
+        <v>788251407</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Parrish</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Shelley</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Deanna</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Jacqueline</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>127400255</v>
+        <v>124244588</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Blankenship</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brendan</t>
+          <t>Calvin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>91729052</v>
+        <v>939837606</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Farmer</t>
+          <t>Bruce</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Meadows</t>
+          <t>Liu</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Shawn</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>814961754</v>
+        <v>191282458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Stewart</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2021-08-27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Flores</t>
+          <t>Lutz</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Angelica</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>370121508</v>
+        <v>500900933</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hahn</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-08-10</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Prince</t>
+          <t>Wallace</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>925958084</v>
+        <v>771127096</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Keller</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jamie</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-08-19</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Carlson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>William</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>928356777</v>
+        <v>315366853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Morales</t>
+          <t>Barker</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Shelley</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Carroll</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>885730453</v>
+        <v>201127759</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Carter</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Coleman</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Beverly</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>266439348</v>
+        <v>612546519</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lowe</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Penny</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Jamie</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-04-14</t>
+          <t>2023-11-12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Connor</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>520387032</v>
+        <v>228183575</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Brandy</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kenneth</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Kirby</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Cody</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>907460134</v>
+        <v>222625701</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bean</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Leslie</t>
+          <t>Selena</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2021-03-16</t>
+          <t>2021-04-03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Kaitlyn</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>795625762</v>
+        <v>641823154</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Gibson</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Michele</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Jacqueline</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2023-04-20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>582352114</v>
+        <v>47646111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Combs</t>
+          <t>Boyd</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>William</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Brett</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-12-25</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Fritz</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Kristina</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>712261153</v>
+        <v>658730523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kelley</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Melanie</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Toni</t>
+          <t>Wayne</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2021-12-18</t>
+          <t>2022-11-06</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cruz</t>
+          <t>Wells</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>126461217</v>
+        <v>847597340</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Castillo</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mallory</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-03-14</t>
+          <t>2022-02-17</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hubbard</t>
+          <t>Roberts</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>652694648</v>
+        <v>429315337</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dickerson</t>
+          <t>Weaver</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Ronnie</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>2023-02-25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kennedy</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Margaret</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>759731223</v>
+        <v>727658162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Weaver</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bryan</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Morales</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Gabriela</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>625238595</v>
+        <v>894692398</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tanya</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>756786258</v>
+        <v>937552093</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alvarez</t>
+          <t>Johnston</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Chase</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mueller</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>862373862</v>
+        <v>848701641</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Burnett</t>
+          <t>Evans</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Derek</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Donna</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-01-15</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Chang</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cody</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>924808570</v>
+        <v>311905181</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Todd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-02-08</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>704660706</v>
+        <v>303764843</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jeanne</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>404017285</v>
+        <v>461995656</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Reid</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>817289629</v>
+        <v>296840687</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Marquez</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Theresa</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-02-11</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Sullivan</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>620892082</v>
+        <v>573490858</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Boyd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Wesley</t>
+          <t>Catherine</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-08-27</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blair</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Kirk</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>63922058</v>
+        <v>992044219</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Deleon</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tiffany</t>
+          <t>Jamie</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2021-12-04</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Campbell</t>
+          <t>Armstrong</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>630294959</v>
+        <v>837988056</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Underwood</t>
+          <t>Dorsey</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kristy</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-10-09</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Duke</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Erin</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>807210563</v>
+        <v>931621212</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>Antonio</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-01-16</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Clarke</t>
+          <t>Parks</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>835019202</v>
+        <v>871279468</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Corey</t>
+          <t>Todd</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cheryl</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>993957845</v>
+        <v>905134270</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Joanna</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2021-03-30</t>
+          <t>2022-08-29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Hudson</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>John</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>120004505</v>
+        <v>421767505</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cole</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leah</t>
+          <t>Geoffrey</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Alec</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2021-08-28</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Reyes</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>57428382</v>
+        <v>704940999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cox</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kristin</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Destiny</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Chavez</t>
+          <t>Bishop</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Theresa</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>158327940</v>
+        <v>386065011</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Alicia</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-11-11</t>
+          <t>2022-08-29</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Reyes</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>622916411</v>
+        <v>700803720</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bennett</t>
+          <t>Hicks</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Catherine</t>
+          <t>Kathy</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Loretta</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Ballard</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Todd</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>784966855</v>
+        <v>986600672</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hodges</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2021-08-16</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Warren</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Erica</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>447670465</v>
+        <v>50334731</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Stout</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Doris</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-09-24</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Serrano</t>
+          <t>Johnston</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Jesse</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>746611712</v>
+        <v>783621051</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Navarro</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Donna</t>
+          <t>Cheryl</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Brandy</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-02-04</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Autumn</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>836856459</v>
+        <v>84894540</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Shaw</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kelli</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Jeremy</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>302595605</v>
+        <v>77863071</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Conner</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2021-08-01</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Carpenter</t>
+          <t>Murphy</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Brandi</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>46788864</v>
+        <v>51228188</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Collins</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>2023-07-26</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Kent</t>
+          <t>Sanders</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>610561260</v>
+        <v>424843025</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Boyer</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2021-01-09</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>441464661</v>
+        <v>290115513</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>Bennett</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Danny</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-06-16</t>
+          <t>2021-12-03</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Padilla</t>
+          <t>Perez</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Janet</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>10904790</v>
+        <v>388182630</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Bates</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Donna</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Brandy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sawyer</t>
+          <t>Watkins</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Drew</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>613275043</v>
+        <v>72105516</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Watkins</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rachael</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2483,37 +2483,37 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Bell</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Michele</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>209673375</v>
+        <v>246798348</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Vasquez</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2523,342 +2523,342 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Crosby</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>548341298</v>
+        <v>561881043</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Moon</t>
+          <t>Beck</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Christine</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>61627401</v>
+        <v>469956581</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Harvey</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2021-06-13</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>Sherman</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Carol</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>278767972</v>
+        <v>931888027</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Mendoza</t>
+          <t>Hogan</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Beverly</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Catherine</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023-05-07</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Connie</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>139801149</v>
+        <v>934970993</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Robinson</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Philip</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Brett</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021-07-25</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Kennedy</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>657187304</v>
+        <v>300467373</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mcdaniel</t>
+          <t>Hunt</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Alexis</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>101947010</v>
+        <v>785592577</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cardenas</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Bethany</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Weiss</t>
+          <t>Eaton</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Olivia</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>826180969</v>
+        <v>135851540</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ronald</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Robinson</t>
+          <t>Cox</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>758099372</v>
+        <v>849539423</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Lawson</t>
+          <t>Hines</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gerald</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Curtis</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Owens</t>
+          <t>Richards</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>324836942</v>
+        <v>297327258</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fleming</t>
+          <t>Boyd</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>Deborah</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Sandoval</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Rebecca</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>984984717</v>
+        <v>868739436</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Shelby</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2868,102 +2868,102 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Angel</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>783142896</v>
+        <v>878974649</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Collins</t>
+          <t>Myers</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>John</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>993856070</v>
+        <v>766598178</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Kathy</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Owens</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Edward</t>
+          <t>Marilyn</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>953888010</v>
+        <v>402948338</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Vaughn</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2973,1152 +2973,1152 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Henderson</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Sabrina</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>825187394</v>
+        <v>442425265</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mcmahon</t>
+          <t>Le</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Zachary</t>
+          <t>Philip</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Marilyn</t>
+          <t>Jill</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-12-03</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Campbell</t>
+          <t>Levine</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Debbie</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>485240460</v>
+        <v>444295350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Boyle</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Brad</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Connie</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2021-11-01</t>
+          <t>2021-01-27</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Salinas</t>
+          <t>Rodgers</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>856823705</v>
+        <v>512667175</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Schultz</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Tara</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Leslie</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2022-01-08</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Kennedy</t>
+          <t>George</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mackenzie</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>449420713</v>
+        <v>190576859</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rios</t>
+          <t>Collins</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-06</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Pena</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>251744544</v>
+        <v>672273659</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Nash</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Molly</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Poole</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Jeanne</t>
+          <t>Philip</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>658619597</v>
+        <v>81395531</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Wallace</t>
+          <t>Chavez</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Castillo</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Joe</t>
+          <t>Shelby</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>703024730</v>
+        <v>899998368</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Wolfe</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jenna</t>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Judith</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Mendoza</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Sheryl</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>327386855</v>
+        <v>67867906</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Nunez</t>
+          <t>Mathis</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Dominique</t>
+          <t>Brittney</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2021-04-15</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Li</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Ruben</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>102878346</v>
+        <v>297650827</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Bethany</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Buckley</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Leah</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>521626229</v>
+        <v>742355440</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Schmidt</t>
+          <t>Mcgee</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Campbell</t>
+          <t>Burke</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Kimberly</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>540021409</v>
+        <v>607103393</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Guerrero</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tiffany</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2021-12-16</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Little</t>
+          <t>Tate</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>466237206</v>
+        <v>559695799</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Chang</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jay</t>
+          <t>Bridget</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cowan</t>
+          <t>Reynolds</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>878053297</v>
+        <v>521371703</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Arnold</t>
+          <t>Tucker</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2022-02-25</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Bush</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>James</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>243467706</v>
+        <v>948782521</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Conrad</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Janet</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Callahan</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>James</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>744422369</v>
+        <v>581294033</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Leslie</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Zuniga</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Brady</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>227614970</v>
+        <v>228039393</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Crosby</t>
+          <t>Trevino</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Theresa</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Pope</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>686503645</v>
+        <v>999110897</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>Ortiz</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Brent</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Briana</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>102810524</v>
+        <v>357252630</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Larsen</t>
+          <t>Erickson</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kristina</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sheila</t>
+          <t>William</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Trujillo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>174973163</v>
+        <v>187423636</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Eaton</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Clements</t>
+          <t>Horton</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>823610650</v>
+        <v>589139035</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Valdez</t>
+          <t>Lin</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>Zachary</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Kelly</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Melendez</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>Craig</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Samantha</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2024-04-04</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Timothy</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>630021775</v>
+        <v>445810866</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cummings</t>
+          <t>Arnold</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>435957736</v>
+        <v>991825610</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Bennett</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2021-07-17</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Bradley</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>160674442</v>
+        <v>517138777</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mullen</t>
+          <t>Marshall</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2021-08-25</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Webb</t>
+          <t>Fitzpatrick</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>974002003</v>
+        <v>979625710</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Watkins</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Margaret</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Kathryn</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Barrett</t>
+          <t>Fischer</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>227649334</v>
+        <v>293963424</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hansen</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Miranda</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2021-01-30</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Middleton</t>
+          <t>Chavez</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>102011424</v>
+        <v>242609915</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Goodman</t>
+          <t>Barnes</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2021-11-14</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>259061578</v>
+        <v>823506036</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Roberson</t>
+          <t>Giles</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Garrett</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Skinner</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>38683987</v>
+        <v>491705902</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Perez</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Evan</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Spears</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Antonio</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>384399666</v>
+        <v>552908226</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Hammond</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Alisha</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Powers</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>48970641</v>
+        <v>494447120</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Bennett</t>
+          <t>Clarke</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Nichols</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Tasha</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>174110608</v>
+        <v>978677396</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Hayden</t>
+          <t>Bush</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Connie</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Flores</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Erica</t>
+          <t>Derek</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>348760674</v>
+        <v>165191148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Rebekah</t>
+          <t>Kimberly</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Henderson</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>David</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>141024250</v>
+        <v>356135828</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Crane</t>
+          <t>Fisher</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Karla</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4128,2847 +4128,2847 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2022-10-08</t>
+          <t>2021-02-13</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>199359296</v>
+        <v>350342714</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Brewer</t>
+          <t>Tucker</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Gabriela</t>
+          <t>Cheryl</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>858710783</v>
+        <v>258242657</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ponce</t>
+          <t>Barron</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ronald</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2023-10-19</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Levy</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Eugene</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>463781681</v>
+        <v>858639734</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Nguyen</t>
+          <t>Frederick</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Christine</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Erickson</t>
+          <t>Bauer</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dennis</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>190102514</v>
+        <v>658817127</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Hogan</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Margaret</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Edwin</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2024-07-14</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Huang</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Nichole</t>
+          <t>Benjamin</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>347237700</v>
+        <v>715745374</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Novak</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Valdez</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>John</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>246174482</v>
+        <v>689890290</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Garza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Shawn</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Christine</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-05-21</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Gabrielle</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>114687434</v>
+        <v>494297989</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Hansen</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Edwin</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Kristen</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Jesus</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>361435032</v>
+        <v>5710729</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>704080599</v>
+        <v>757804718</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Devin</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cheryl</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2021-12-02</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Hampton</t>
+          <t>Griffin</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Lindsey</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>811865997</v>
+        <v>225695011</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Porter</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2021-02-03</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Randall</t>
+          <t>Ronnie</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>669650158</v>
+        <v>56632611</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Roberson</t>
+          <t>Wall</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kenneth</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Mclaughlin</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>438204596</v>
+        <v>229681499</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Garner</t>
+          <t>Patton</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Joel</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Mason</t>
+          <t>Erin</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2021-12-18</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Snow</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>714969654</v>
+        <v>30677384</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Castillo</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Dustin</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimberly</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Gillespie</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>243026311</v>
+        <v>45084800</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Rowland</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Leslie</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>Paige</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2579810</v>
+        <v>343506823</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Henderson</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Alicia</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Bradley</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>189295094</v>
+        <v>462218220</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Odonnell</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Jeffery</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-01-10</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Woods</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Kelsey</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>527296728</v>
+        <v>213194630</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Melinda</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Freeman</t>
+          <t>Larson</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Whitney</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>182743495</v>
+        <v>86871101</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Stephenson</t>
+          <t>Heath</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Chase</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Henderson</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>972653551</v>
+        <v>285250918</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Mathews</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Bullock</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Angelica</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>382126013</v>
+        <v>187613223</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Gutierrez</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Carol</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2021-01-05</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Hurley</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Jeremy</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>465926680</v>
+        <v>531364707</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Davies</t>
+          <t>Serrano</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Shawn</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Mcdaniel</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>878478482</v>
+        <v>862091323</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Reeves</t>
+          <t>Hudson</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Natasha</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Snyder</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Tiffany</t>
+          <t>Edward</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>523336402</v>
+        <v>302180116</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Gross</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Reyes</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>John</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>441541180</v>
+        <v>955793062</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Sutton</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Ellen</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2021-11-19</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Schroeder</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>558222493</v>
+        <v>970523800</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Ortiz</t>
+          <t>Buck</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Lance</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2023-05-07</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>967936340</v>
+        <v>881290231</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Hicks</t>
+          <t>Graves</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2021-04-05</t>
+          <t>2022-10-23</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Kimberly</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>113606434</v>
+        <v>961706904</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Terry</t>
+          <t>Simmons</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Colleen</t>
+          <t>Rhonda</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Bennett</t>
+          <t>Blair</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ricardo</t>
+          <t>Ronald</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>508963122</v>
+        <v>657559683</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Patel</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Todd</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ralph</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2022-01-23</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>177974910</v>
+        <v>751669001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Brandy</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Clinton</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tanya</t>
+          <t>Whitney</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>436306116</v>
+        <v>484180069</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Church</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Catherine</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Kristen</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Chavez</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Donna</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>356458184</v>
+        <v>134915094</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Trevino</t>
+          <t>Baird</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>Meghan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Julie</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Reyes</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Cheryl</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>43522024</v>
+        <v>853794971</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>George</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Glenda</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2022-01-08</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>49749954</v>
+        <v>510047696</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Chavez</t>
+          <t>Sellers</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Helen</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2022-01-16</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Nielsen</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>33307811</v>
+        <v>413542278</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Melton</t>
+          <t>Berry</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2023-07-28</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>863269163</v>
+        <v>903929094</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Stewart</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Rhonda</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Flores</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>137798378</v>
+        <v>236605028</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Carter</t>
+          <t>Obrien</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Janet</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Cooper</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>77131740</v>
+        <v>701586592</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Beck</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2021-09-05</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Ramirez</t>
+          <t>Mcmillan</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Joel</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>174080094</v>
+        <v>31972778</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Darren</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Tommy</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2021-01-08</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Nielsen</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>906341305</v>
+        <v>864275843</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2021-08-25</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Richardson</t>
+          <t>Schmidt</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>588487249</v>
+        <v>565678313</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>William</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Horne</t>
+          <t>Hoover</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>552149455</v>
+        <v>623431266</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Stone</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Maxwell</t>
+          <t>Miranda</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Richardson</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>James</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>423295474</v>
+        <v>415464364</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2022-08-03</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Latasha</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>492617361</v>
+        <v>986318124</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Glover</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2021-01-24</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Chandler</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>319659554</v>
+        <v>415893003</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Webb</t>
+          <t>Blankenship</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Kiara</t>
+          <t>Donna</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2021-03-27</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Harris</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>519958773</v>
+        <v>128149717</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Hopkins</t>
+          <t>Vargas</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Berry</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Joe</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>413026802</v>
+        <v>803805657</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Potter</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bradley</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2021-10-31</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Coleman</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>987362505</v>
+        <v>349989456</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Roger</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Barnett</t>
+          <t>Moon</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>456835721</v>
+        <v>513536710</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Cross</t>
+          <t>Yang</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Veronica</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Mahoney</t>
+          <t>Hutchinson</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Rachael</t>
+          <t>Connie</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>145339520</v>
+        <v>483506580</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Pennington</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Ward</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>889800128</v>
+        <v>196995466</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Rangel</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>Michele</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cook</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>802004949</v>
+        <v>28635979</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Villanueva</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Flores</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Erica</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>206337422</v>
+        <v>816221297</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Matthews</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Conrad</t>
+          <t>Harris</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>143366257</v>
+        <v>47628764</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Browning</t>
+          <t>Randolph</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Kristin</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2021-01-20</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Wade</t>
+          <t>Ballard</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Colin</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>677177465</v>
+        <v>494791708</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Calderon</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Coleman</t>
+          <t>Avila</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>798642273</v>
+        <v>827068683</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Stewart</t>
+          <t>Bell</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Pruitt</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>981052969</v>
+        <v>102268449</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Cruz</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Bradley</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sanders</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Brooke</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>659860940</v>
+        <v>481719529</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Perez</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Makayla</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Marquez</t>
+          <t>Kennedy</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Hector</t>
+          <t>Catherine</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>633618649</v>
+        <v>876328404</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Erickson</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Dennis</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Acosta</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>534771065</v>
+        <v>189545768</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Donna</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Derrick</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Baldwin</t>
+          <t>Burns</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Melanie</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>109169106</v>
+        <v>161091057</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Lawrence</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Julie</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Flores</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>John</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>15982075</v>
+        <v>257059461</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Soto</t>
+          <t>Galvan</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Eduardo</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Dixon</t>
+          <t>Pennington</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Whitney</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>400650390</v>
+        <v>985374366</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Cole</t>
+          <t>Molly</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Rich</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Ann</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>275749313</v>
+        <v>1986086</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Ellis</t>
+          <t>Olson</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Dustin</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2021-01-07</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Rogers</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Connor</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>358688952</v>
+        <v>266887823</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Lawrence</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Sheila</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>908910528</v>
+        <v>267831998</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Armstrong</t>
+          <t>Moreno</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Regina</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2022-06-04</t>
+          <t>2021-03-09</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Dunn</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Whitney</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>525286182</v>
+        <v>487326265</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Ochoa</t>
+          <t>Conner</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Phyllis</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>William</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2021-01-05</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Reilly</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Jamie</t>
+          <t>Bethany</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>279126071</v>
+        <v>3934686</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Velasquez</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Patty</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>766669373</v>
+        <v>763428289</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Estrada</t>
+          <t>Callahan</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Brad</t>
+          <t>Travis</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Hatfield</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Jacqueline</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>317931775</v>
+        <v>720015709</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Owens</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>Deborah</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Amber</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2021-02-16</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Dawson</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
           <t>Susan</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2021-08-07</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Lawrence</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>William</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>620818570</v>
+        <v>995699179</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sanders</t>
+          <t>Porter</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2021-01-10</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Goodwin</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>680535802</v>
+        <v>574059785</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Alexis</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Lance</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Perkins</t>
+          <t>Rasmussen</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Holly</t>
+          <t>Alisha</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>896896580</v>
+        <v>332059666</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Hutchinson</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Cody</t>
+          <t>Jamie</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Vazquez</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Brad</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>568345700</v>
+        <v>562274624</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Alicia</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
           <t>Moore</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Stephen</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Larry</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>2022-06-16</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Powell</t>
-        </is>
-      </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>101960994</v>
+        <v>31791239</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Johnston</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Murphy</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>86588067</v>
+        <v>216580773</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Erin</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Tiffany</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Holmes</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Tony</t>
+          <t>Meghan</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>859153472</v>
+        <v>827624886</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>919358909</v>
+        <v>198126578</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Edward</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2023-03-26</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Lance</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>296532724</v>
+        <v>311528272</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Riley</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Travis</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Martha</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>849700183</v>
+        <v>357380739</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Haas</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Dominique</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2021-08-28</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Riley</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Dominique</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>733544867</v>
+        <v>549099800</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Newton</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Margaret</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Powell</t>
+          <t>Rocha</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>494392243</v>
+        <v>457815197</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Dixon</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Connie</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Cook</t>
+          <t>Walton</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6977,497 +6977,497 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>530485708</v>
+        <v>658102606</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Doyle</t>
+          <t>Walters</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Randall</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Lane</t>
+          <t>Henderson</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>293618430</v>
+        <v>95036434</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Myers</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Fuentes</t>
+          <t>Chapman</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>549697624</v>
+        <v>90975189</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-06</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Brooke</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>910327500</v>
+        <v>18757471</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Rogers</t>
+          <t>Bruce</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Ann</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>470470486</v>
+        <v>264039124</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Wallace</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Kirk</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>10779360</v>
+        <v>193966286</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Wong</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Garrison</t>
+          <t>Carter</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Crystal</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>303403524</v>
+        <v>363729753</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Margaret</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Devin</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Odom</t>
+          <t>Dickerson</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>622802880</v>
+        <v>336215361</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Jefferson</t>
+          <t>Montoya</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Ernest</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Erin</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>707869311</v>
+        <v>120619020</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Hooper</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Wanda</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>62401625</v>
+        <v>253847558</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2021-08-21</t>
+          <t>2022-02-20</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Colleen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>514485517</v>
+        <v>505917412</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Bryant</t>
+          <t>Gibbs</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Lawrence</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2021-07-07</t>
+          <t>2022-09-05</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Vaughan</t>
+          <t>Foster</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>369373443</v>
+        <v>166199506</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Hughes</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Rebekah</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Trujillo</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Erica</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>187846927</v>
+        <v>954132214</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Nichole</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Baxter</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>805860289</v>
+        <v>378483730</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Autumn</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Myers</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>860326965</v>
+        <v>52566915</v>
       </c>
     </row>
   </sheetData>

--- a/database_data_200.xlsx
+++ b/database_data_200.xlsx
@@ -473,1912 +473,1912 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weber</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kathleen</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>837561270</v>
+        <v>85022557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Malone</t>
+          <t>Ponce</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>William</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lindsay</t>
+          <t>Edward</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>King</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>714375088</v>
+        <v>500559464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Corey</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Olson</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>560528673</v>
+        <v>759431502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beck</t>
+          <t>Colon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Devin</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>2021-12-26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mata</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>158472928</v>
+        <v>179867455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Stacy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Regina</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>876651725</v>
+        <v>722129537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marissa</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Kimberly</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-05-24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>James</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021-11-15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cochran</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>98196486</v>
+        <v>235458097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Roberts</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sheri</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>205088207</v>
+        <v>443765477</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Farley</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Breanna</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Carpenter</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Shawn</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>964250633</v>
+        <v>556059891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cain</t>
+          <t>Montoya</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Sheila</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>360742185</v>
+        <v>807260735</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>John</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Simmons</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Zachary</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>475555266</v>
+        <v>750511923</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jared</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Theresa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-06-19</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Woods</t>
+          <t>Campos</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>629988117</v>
+        <v>378700199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Freeman</t>
+          <t>Cruz</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sherri</t>
+          <t>Kendra</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Rogers</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Alicia</t>
+          <t>Glenn</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>148738032</v>
+        <v>215465637</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edward</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Darren</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-03-04</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Mullins</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lynn</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>812352805</v>
+        <v>75337436</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Henderson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Joanna</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Bryant</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>788251407</v>
+        <v>145936989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Parrish</t>
+          <t>Randall</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Sheila</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Jennifer</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2023-02-07</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Jacqueline</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>124244588</v>
+        <v>941367859</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Calvin</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2021-01-18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>Li</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>David</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>939837606</v>
+        <v>356615505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bruce</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Jeffery</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Cathy</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-04-22</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Liu</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Shawn</t>
+          <t>Connor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>191282458</v>
+        <v>426578799</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Stewart</t>
+          <t>Lin</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Julie</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-08-27</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lutz</t>
+          <t>Fernandez</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Angelica</t>
+          <t>Margaret</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>500900933</v>
+        <v>842408943</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Wallace</t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>771127096</v>
+        <v>511893048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Keller</t>
+          <t>Mccall</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>James</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>315366853</v>
+        <v>973288307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Barker</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shelley</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Tate</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>201127759</v>
+        <v>734437251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Delgado</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2023-05-13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Wolfe</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>612546519</v>
+        <v>302522419</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lowe</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jamie</t>
+          <t>Cameron</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-11-12</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Cross</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Connor</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>228183575</v>
+        <v>877438666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Kelsey</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kirby</t>
+          <t>Sims</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cody</t>
+          <t>Alexandra</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>222625701</v>
+        <v>498857551</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Salinas</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Selena</t>
+          <t>Stacey</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2021-04-03</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kaitlyn</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>641823154</v>
+        <v>613759532</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gibson</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-04-20</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bryan</t>
+          <t>Cochran</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Jeremy</t>
+          <t>Benjamin</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>47646111</v>
+        <v>936718337</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Boyd</t>
+          <t>Ellis</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiffany</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fritz</t>
+          <t>Roth</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kristina</t>
+          <t>Micheal</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>658730523</v>
+        <v>786899668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Bowman</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Melanie</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wayne</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-11-06</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Wells</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>847597340</v>
+        <v>454630573</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Rivera</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Latoya</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-02-17</t>
+          <t>2022-10-15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Roberts</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>429315337</v>
+        <v>105348511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Weaver</t>
+          <t>Rivera</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ronnie</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Sabrina</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-02-25</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Margaret</t>
+          <t>Tricia</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>727658162</v>
+        <v>554251719</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Weaver</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Erik</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Danny</t>
+          <t>Keith</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2022-12-03</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Ray</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gabriela</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>894692398</v>
+        <v>921647111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Colleen</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Krueger</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>937552093</v>
+        <v>117788207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Johnston</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Chase</t>
+          <t>Margaret</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Curtis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>William</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>848701641</v>
+        <v>142363210</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Evans</t>
+          <t>Potter</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>William</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Maxwell</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>311905181</v>
+        <v>670178415</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Debra</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>303764843</v>
+        <v>458306754</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Ortega</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Brooke</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Jeanne</t>
+          <t>Janet</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>461995656</v>
+        <v>603830168</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Flynn</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Kaylee</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2021-02-03</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Reid</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>296840687</v>
+        <v>61039657</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Marquez</t>
+          <t>Becker</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Laurie</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Sherry</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>573490858</v>
+        <v>539714225</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Boyd</t>
+          <t>Poole</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Catherine</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Blair</t>
+          <t>Wolfe</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kirk</t>
+          <t>Lindsay</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>992044219</v>
+        <v>390574603</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Jamie</t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Shane</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Armstrong</t>
+          <t>Middleton</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>837988056</v>
+        <v>758323242</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dorsey</t>
+          <t>Carter</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lauren</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>931621212</v>
+        <v>5966153</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-01-16</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Montes</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>871279468</v>
+        <v>140929160</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Boyer</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Yvonne</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-01-29</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Chandler</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>905134270</v>
+        <v>298190668</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Mann</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Zachary</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hudson</t>
+          <t>Landry</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>421767505</v>
+        <v>327636670</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Geoffrey</t>
+          <t>Stanley</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Alec</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-08-28</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Reyes</t>
+          <t>Molina</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kenneth</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>704940999</v>
+        <v>650468928</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Nielsen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Vickie</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Destiny</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bishop</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Theresa</t>
+          <t>Edward</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>386065011</v>
+        <v>311756063</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Alicia</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Reyes</t>
+          <t>Hooper</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Regina</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>700803720</v>
+        <v>985084414</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hicks</t>
+          <t>Bryant</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kathy</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ballard</t>
+          <t>Hill</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Erica</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>986600672</v>
+        <v>46403391</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>Patton</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Danny</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Warren</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>50334731</v>
+        <v>941480177</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Stout</t>
+          <t>Harris</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-09-24</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Johnston</t>
+          <t>Rivera</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Cheryl</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>783621051</v>
+        <v>375314571</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Lyons</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cheryl</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Turner</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Autumn</t>
+          <t>Jamie</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>84894540</v>
+        <v>7169803</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Shaw</t>
+          <t>West</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Simmons</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Jane</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>77863071</v>
+        <v>912606593</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Rivers</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michele</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2021-11-01</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Murphy</t>
+          <t>Maxwell</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>David</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>51228188</v>
+        <v>179146282</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Collins</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-07-26</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sanders</t>
+          <t>Nichols</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>424843025</v>
+        <v>567427362</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Boyer</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2388,4397 +2388,4397 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>290115513</v>
+        <v>737438749</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bennett</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2021-12-03</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>388182630</v>
+        <v>462848269</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bates</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Donna</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Brandy</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Watkins</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Drew</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>72105516</v>
+        <v>219277987</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Chavez</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Sierra</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Tucker</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Michele</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>246798348</v>
+        <v>670893151</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Vasquez</t>
+          <t>Flynn</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Molly</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Evan</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2023-12-07</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Crosby</t>
+          <t>Barnes</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>561881043</v>
+        <v>128248154</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Beck</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Curtis</t>
+          <t>Perez</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>469956581</v>
+        <v>526125052</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Henderson</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sherman</t>
+          <t>Reeves</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Carol</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>931888027</v>
+        <v>387726765</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hogan</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Beverly</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Christine</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>934970993</v>
+        <v>845323996</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Bell</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Philip</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Kathryn</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>300467373</v>
+        <v>945960710</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Jill</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Jenna</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hunt</t>
+          <t>Mcfarland</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Joan</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>785592577</v>
+        <v>588108591</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Daniels</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bethany</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Eaton</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>135851540</v>
+        <v>515881898</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Mejia</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cox</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>849539423</v>
+        <v>689062554</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hines</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Lynn</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Jamie</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2021-01-25</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Richards</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>297327258</v>
+        <v>82146334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Boyd</t>
+          <t>Flores</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Leslie</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Conley</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Deborah</t>
+          <t>John</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>868739436</v>
+        <v>717676125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2021-03-24</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Pitts</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>878974649</v>
+        <v>886142212</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Myers</t>
+          <t>Caldwell</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>766598178</v>
+        <v>154186222</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Mclaughlin</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kathy</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>Melinda</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2021-11-01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Bartlett</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>Jennifer</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2024-08-06</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Owens</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Marilyn</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>402948338</v>
+        <v>410089826</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Hensley</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Makayla</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2022-08-22</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>King</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>John</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>442425265</v>
+        <v>556406018</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Le</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Philip</t>
+          <t>Alyssa</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Jill</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2023-10-19</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Levine</t>
+          <t>Nichols</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>444295350</v>
+        <v>661967961</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Connie</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2021-01-27</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Rodgers</t>
+          <t>Blankenship</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>512667175</v>
+        <v>335209073</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Schultz</t>
+          <t>Conrad</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tara</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Bush</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>190576859</v>
+        <v>765283018</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Collins</t>
+          <t>Mora</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Rhonda</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Pena</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>672273659</v>
+        <v>226539877</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nash</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Molly</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2022-02-02</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Poole</t>
+          <t>Bell</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Philip</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>81395531</v>
+        <v>206308101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Chavez</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Billy</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2021-03-06</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Oliver</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Shelby</t>
+          <t>Beth</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>899998368</v>
+        <v>547280707</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wolfe</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Gilbert</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Judith</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Ortiz</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sheryl</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>67867906</v>
+        <v>866481136</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mathis</t>
+          <t>Huynh</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Brittney</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Andre</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Ruben</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>297650827</v>
+        <v>706994471</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Rogers</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>William</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Curtis</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tiffany</t>
+          <t>John</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>742355440</v>
+        <v>9724323</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mcgee</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Charlene</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Burke</t>
+          <t>Kline</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Sierra</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>607103393</v>
+        <v>652288811</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Hensley</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Bridget</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2021-12-16</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Tate</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Katrina</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>559695799</v>
+        <v>622053958</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bridget</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Reynolds</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>521371703</v>
+        <v>757740654</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tucker</t>
+          <t>Maxwell</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jeremy</t>
+          <t>Cheryl</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Bush</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>948782521</v>
+        <v>578423170</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Conrad</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2021-08-22</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Callahan</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>581294033</v>
+        <v>633351147</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Stevenson</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2021-08-16</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Zuniga</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>228039393</v>
+        <v>253161527</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Trevino</t>
+          <t>Mccoy</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Bryan</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2021-11-12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Benton</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Julie</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>999110897</v>
+        <v>618055240</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ortiz</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Brent</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Briana</t>
+          <t>Ronald</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>357252630</v>
+        <v>504535630</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Erickson</t>
+          <t>Harris</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Stacy</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2021-02-20</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Trujillo</t>
+          <t>Guzman</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>187423636</v>
+        <v>343381028</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Eaton</t>
+          <t>Singleton</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Alicia</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Caleb</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Horton</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>589139035</v>
+        <v>118150736</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lin</t>
+          <t>Leonard</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Zachary</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Melendez</t>
+          <t>Nichols</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Craig</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>445810866</v>
+        <v>559998910</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Arnold</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Jesse</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Gilmore</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Connor</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>991825610</v>
+        <v>808064494</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bennett</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2021-07-17</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bianca</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>517138777</v>
+        <v>567288967</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marshall</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Melinda</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Fitzpatrick</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>979625710</v>
+        <v>181015934</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Watkins</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Margaret</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Kathryn</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Fischer</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>293963424</v>
+        <v>514559029</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Brandy</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2023-02-05</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Chavez</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Eugene</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>242609915</v>
+        <v>947997449</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Walters</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Veronica</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Alicia</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>823506036</v>
+        <v>313327951</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Giles</t>
+          <t>Copeland</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Larry</t>
+          <t>Mikayla</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Chavez</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>491705902</v>
+        <v>864194151</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Fields</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Evan</t>
+          <t>Kylie</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Spears</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Deanna</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>552908226</v>
+        <v>568362980</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hammond</t>
+          <t>Goodman</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Alisha</t>
+          <t>William</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>2023-11-12</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Morales</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Bobby</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>494447120</v>
+        <v>694794738</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Clarke</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Fernandez</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>978677396</v>
+        <v>283736973</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bush</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Connie</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Lynn</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Alvin</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>165191148</v>
+        <v>105239215</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Nolan</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Melvin</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>356135828</v>
+        <v>689557437</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Fisher</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Noah</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2021-02-13</t>
+          <t>2023-04-27</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Rivas</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>350342714</v>
+        <v>48935696</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tucker</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Cheryl</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>258242657</v>
+        <v>156655027</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Barron</t>
+          <t>Lozano</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Levy</t>
+          <t>Stokes</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Eugene</t>
+          <t>George</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>858639734</v>
+        <v>793406136</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Frederick</t>
+          <t>Li</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Zachary</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Bauer</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Tamara</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>658817127</v>
+        <v>46830585</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Gross</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Edwin</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-14</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Clifford</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>715745374</v>
+        <v>414278143</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Hill</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Vickie</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>689890290</v>
+        <v>17173000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Rangel</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Shawn</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Gabrielle</t>
+          <t>Tricia</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>494297989</v>
+        <v>770455882</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Hansen</t>
+          <t>Pruitt</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Craig</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Patton</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5710729</v>
+        <v>681546033</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2024-06-08</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Lynch</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>757804718</v>
+        <v>170413681</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Weeks</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Lindsay</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Carol</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2021-12-02</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Griffin</t>
+          <t>Harris</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Krystal</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>225695011</v>
+        <v>773434226</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Barber</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2021-02-03</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Shelton</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Ronnie</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>56632611</v>
+        <v>813373485</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wall</t>
+          <t>Fischer</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Natasha</t>
+          <t>Briana</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>229681499</v>
+        <v>928741461</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Patton</t>
+          <t>Roberts</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Erin</t>
+          <t>John</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2021-12-18</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Underwood</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>David</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>30677384</v>
+        <v>965591627</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Dustin</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>45084800</v>
+        <v>322147595</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Rowland</t>
+          <t>Hensley</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Leslie</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Paige</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>343506823</v>
+        <v>526894070</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Richardson</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-03-01</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Rick</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>462218220</v>
+        <v>758710630</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Odonnell</t>
+          <t>Salas</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Terrence</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Jeffery</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Chavez</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>George</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>213194630</v>
+        <v>205250907</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Fleming</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Melinda</t>
+          <t>Dustin</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Larson</t>
+          <t>Cox</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>86871101</v>
+        <v>526310271</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Heath</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Chase</t>
+          <t>Erin</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>285250918</v>
+        <v>135170123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Larson</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Meghan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Roberts</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Angelica</t>
+          <t>Carol</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>187613223</v>
+        <v>156007662</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Gutierrez</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Mendoza</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>531364707</v>
+        <v>54986736</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Serrano</t>
+          <t>Cameron</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Kenneth</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Jack</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Carter</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>862091323</v>
+        <v>207718670</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Hudson</t>
+          <t>Murphy</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Kimberly</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Snyder</t>
+          <t>Lloyd</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Edward</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>302180116</v>
+        <v>41262934</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Trevino</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>955793062</v>
+        <v>458481553</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sutton</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ellen</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Schroeder</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Cassandra</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>970523800</v>
+        <v>55854128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Buck</t>
+          <t>Solis</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>James</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>881290231</v>
+        <v>326477538</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Graves</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2022-10-23</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Copeland</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>961706904</v>
+        <v>188652976</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Simmons</t>
+          <t>Greene</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Rhonda</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Blair</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ronald</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>657559683</v>
+        <v>527848668</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Myers</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Keith</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>751669001</v>
+        <v>229134848</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Snyder</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cassandra</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Clinton</t>
+          <t>Ronald</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2022-02-17</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Savage</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Whitney</t>
+          <t>Tonya</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>484180069</v>
+        <v>28804457</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Church</t>
+          <t>Hansen</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>Tonya</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Kristen</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Donna</t>
+          <t>George</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>134915094</v>
+        <v>491308402</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Baird</t>
+          <t>Harrison</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Meghan</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Lindsey</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>853794971</v>
+        <v>620541809</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Daisy</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Ellison</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>510047696</v>
+        <v>670529673</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sellers</t>
+          <t>Levy</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Helen</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Nielsen</t>
+          <t>Cervantes</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>413542278</v>
+        <v>3935836</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Berry</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>903929094</v>
+        <v>39960838</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Stewart</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Cody</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2021-04-10</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Flores</t>
+          <t>Leach</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>236605028</v>
+        <v>130429846</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Obrien</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Cooper</t>
+          <t>Rivera</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Ronald</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>701586592</v>
+        <v>799047253</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Dixon</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Brooke</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2021-09-05</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Mcmillan</t>
+          <t>Mcclain</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>31972778</v>
+        <v>898639292</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Darren</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Tricia</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Nielsen</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Kenneth</t>
+          <t>David</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>864275843</v>
+        <v>661514858</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Christine</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Schmidt</t>
+          <t>Gentry</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>565678313</v>
+        <v>658642308</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Sierra</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>623431266</v>
+        <v>931514406</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Miranda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2021-03-17</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Richardson</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Stacey</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>415464364</v>
+        <v>67280437</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Brady</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>986318124</v>
+        <v>525599729</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Glover</t>
+          <t>Herrera</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Laurie</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>John</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Chandler</t>
+          <t>Kennedy</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>415893003</v>
+        <v>876320215</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Blankenship</t>
+          <t>Collier</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Donna</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Harris</t>
+          <t>Schwartz</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>128149717</v>
+        <v>284565359</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Vargas</t>
+          <t>Shaffer</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>803805657</v>
+        <v>432280999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Burgess</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Melanie</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Yolanda</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2021-03-13</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Hubbard</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Deborah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>349989456</v>
+        <v>208072131</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Berry</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Collin</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Moon</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>513536710</v>
+        <v>578301427</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Yang</t>
+          <t>Hill</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Hutchinson</t>
+          <t>Burns</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Connie</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>483506580</v>
+        <v>919689129</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Pennington</t>
+          <t>Sharp</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Stanley</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Tara</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ward</t>
+          <t>Howard</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>196995466</v>
+        <v>368485340</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Holt</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Michele</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Lauren</t>
+          <t>Helen</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2021-04-07</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Rowe</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>28635979</v>
+        <v>351656317</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Li</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Flores</t>
+          <t>Potts</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>816221297</v>
+        <v>809307331</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Mack</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2023-12-10</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Harris</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>47628764</v>
+        <v>415256306</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Randolph</t>
+          <t>Rojas</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Kaitlyn</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Christine</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2021-01-20</t>
+          <t>2022-01-03</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ballard</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>494791708</v>
+        <v>147211733</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Calderon</t>
+          <t>Kramer</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Avila</t>
+          <t>Stokes</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>827068683</v>
+        <v>927896269</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Bell</t>
+          <t>Hodges</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Ruben</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Pruitt</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>102268449</v>
+        <v>935044042</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cruz</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Bradley</t>
+          <t>Peggy</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Evans</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Brooke</t>
+          <t>Ronald</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>481719529</v>
+        <v>869548177</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Ibarra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Makayla</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Kennedy</t>
+          <t>Hoover</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Catherine</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>876328404</v>
+        <v>877425295</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Erickson</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Cody</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>189545768</v>
+        <v>656291582</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Donna</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Derrick</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Burns</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Melanie</t>
+          <t>John</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>161091057</v>
+        <v>310402000</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Lance</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Mcintyre</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>257059461</v>
+        <v>332203995</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Galvan</t>
+          <t>Li</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Blake</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Deborah</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Pennington</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Whitney</t>
+          <t>Leslie</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>985374366</v>
+        <v>302412829</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Molly</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2023-12-07</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Rich</t>
+          <t>Nichols</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Ann</t>
+          <t>William</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1986086</v>
+        <v>628959238</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Olson</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Dustin</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Burke</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>266887823</v>
+        <v>954039572</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Donna</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2021-10-24</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Wyatt</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sheila</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>267831998</v>
+        <v>481748874</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Moreno</t>
+          <t>Matthews</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Kenneth</t>
+          <t>Vicki</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2021-03-09</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Huffman</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>487326265</v>
+        <v>261757009</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Conner</t>
+          <t>Weaver</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Phyllis</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>Jesse</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2021-10-10</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Hunt</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
           <t>William</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>2021-01-05</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Reilly</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Bethany</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>3934686</v>
+        <v>930373755</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Velasquez</t>
+          <t>Schneider</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Stone</t>
+          <t>Stevens</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>763428289</v>
+        <v>606162386</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Callahan</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Travis</t>
+          <t>Mikayla</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Andrews</t>
+          <t>Carpenter</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>720015709</v>
+        <v>763566201</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Brewer</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Deborah</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2021-02-16</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Dawson</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>995699179</v>
+        <v>289234028</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Porter</t>
+          <t>Wells</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2021-01-10</t>
+          <t>2023-04-15</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Goodwin</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Stacey</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>574059785</v>
+        <v>378583844</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Cathy</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Rasmussen</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Alisha</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>332059666</v>
+        <v>745568996</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Hutchinson</t>
+          <t>Hunt</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Jamie</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Vazquez</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Brad</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>562274624</v>
+        <v>903693207</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Alicia</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ronald</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2021-04-10</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Crystal</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>31791239</v>
+        <v>752041203</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Johnston</t>
+          <t>Jimenez</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Murphy</t>
+          <t>Knox</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Joan</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>216580773</v>
+        <v>377427286</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Cole</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Erin</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Zachary</t>
+          <t>Margaret</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-03-04</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnston</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Meghan</t>
+          <t>Kathy</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>827624886</v>
+        <v>842729007</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6788,686 +6788,686 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Lynch</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>198126578</v>
+        <v>483208678</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Erica</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Edward</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>311528272</v>
+        <v>95577285</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Mcdonald</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2021-06-13</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Martha</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>357380739</v>
+        <v>562860531</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Haas</t>
+          <t>Terry</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Dominique</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Chandler</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Makayla</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>549099800</v>
+        <v>535421596</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Bryan</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
           <t>Danielle</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2021-10-13</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Rocha</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Danielle</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>457815197</v>
+        <v>360518166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Connie</t>
+          <t>Krista</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2021-12-10</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Walton</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>658102606</v>
+        <v>674643592</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Walters</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Henderson</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>John</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>95036434</v>
+        <v>552124820</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Myers</t>
+          <t>Bennett</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Chapman</t>
+          <t>Gardner</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>90975189</v>
+        <v>221643952</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Crystal</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Orr</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Brooke</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>18757471</v>
+        <v>997561351</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Bruce</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Ann</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>264039124</v>
+        <v>762411914</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Browning</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Kirk</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>193966286</v>
+        <v>595058766</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Wong</t>
+          <t>Hubbard</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>Jared</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Carter</t>
+          <t>Mcgrath</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>363729753</v>
+        <v>397645239</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Rogers</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Margaret</t>
+          <t>Martha</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Dickerson</t>
+          <t>Solomon</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>336215361</v>
+        <v>142900398</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Montoya</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Sheila</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Dixon</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Erin</t>
+          <t>Regina</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>120619020</v>
+        <v>548047312</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hooper</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Wanda</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>253847558</v>
+        <v>949229581</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2022-02-20</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>505917412</v>
+        <v>802623570</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Gibbs</t>
+          <t>Flores</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Lawrence</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2022-09-05</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Foster</t>
+          <t>Harrington</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>166199506</v>
+        <v>890287911</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Hughes</t>
+          <t>Mccann</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Fernando</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Lambert</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>954132214</v>
+        <v>689509374</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nichole</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Lynn</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Baxter</t>
+          <t>Macias</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>378483730</v>
+        <v>217795109</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Valenzuela</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>April</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2021-12-26</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Myers</t>
+          <t>Mcdaniel</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Kathy</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>52566915</v>
+        <v>58368650</v>
       </c>
     </row>
   </sheetData>
